--- a/class/example.xlsx
+++ b/class/example.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\viewing\class\"/>
@@ -13,26 +13,56 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="42">
   <si>
-    <t>John David Lozano</t>
+    <t>Section</t>
   </si>
   <si>
-    <t>Jeddahlyn Cabuga</t>
+    <t>Branch</t>
+  </si>
+  <si>
+    <t>MANILA</t>
+  </si>
+  <si>
+    <t>Subject Code</t>
+  </si>
+  <si>
+    <t>Academic Year</t>
+  </si>
+  <si>
+    <t>2015-2016</t>
+  </si>
+  <si>
+    <t>Instructor</t>
+  </si>
+  <si>
+    <t>Semester</t>
+  </si>
+  <si>
+    <t>1st Semester</t>
   </si>
   <si>
     <t>Student Information</t>
+  </si>
+  <si>
+    <t>QUIZ (40%)</t>
+  </si>
+  <si>
+    <t>EXAM (40%)</t>
+  </si>
+  <si>
+    <t>SIO (20%)</t>
+  </si>
+  <si>
+    <t>GRADE</t>
   </si>
   <si>
     <t>ID</t>
@@ -41,10 +71,64 @@
     <t>Name</t>
   </si>
   <si>
+    <t>PL</t>
+  </si>
+  <si>
+    <t>MT</t>
+  </si>
+  <si>
+    <t>PF</t>
+  </si>
+  <si>
+    <t>FN</t>
+  </si>
+  <si>
+    <t>AVE</t>
+  </si>
+  <si>
+    <t>SIO</t>
+  </si>
+  <si>
+    <t>Grade</t>
+  </si>
+  <si>
+    <t>Add</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Final </t>
+  </si>
+  <si>
+    <t>Remark</t>
+  </si>
+  <si>
+    <t>Failed</t>
+  </si>
+  <si>
+    <t>Prepared By:</t>
+  </si>
+  <si>
+    <t>Checked By:</t>
+  </si>
+  <si>
+    <t>Accepted for encoding by:</t>
+  </si>
+  <si>
+    <t>Academic Coordinator</t>
+  </si>
+  <si>
+    <t>Registrar</t>
+  </si>
+  <si>
     <t>A111G0001</t>
   </si>
   <si>
+    <t>John David Lozano</t>
+  </si>
+  <si>
     <t>A111G0002</t>
+  </si>
+  <si>
+    <t>Jeddahlyn Cabuga</t>
   </si>
   <si>
     <t>A111G0003</t>
@@ -72,7 +156,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#."/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -85,10 +169,42 @@
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
@@ -99,7 +215,45 @@
       <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="8"/>
+      <color indexed="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color indexed="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="7"/>
+      <color indexed="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color indexed="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color indexed="12"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -148,7 +302,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -171,39 +325,137 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="2" fontId="15" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="2" fontId="15" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="2" fontId="15" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="2" fontId="13" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -212,7 +464,7 @@
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -235,44 +487,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -305,9 +557,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -346,235 +598,3507 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:Y72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="S12" sqref="S12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.140625" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="3" max="3" width="22.42578125" customWidth="1"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" customWidth="1"/>
+    <col min="4" max="4" width="3.140625" customWidth="1"/>
+    <col min="11" max="11" width="2.5703125" customWidth="1"/>
+    <col min="18" max="18" width="2.85546875" customWidth="1"/>
+    <col min="21" max="21" width="2.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>2</v>
-      </c>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2" t="s">
+      <c r="D1" s="3"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="X1" s="5"/>
+      <c r="Y1" s="1"/>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="X2" s="5"/>
+      <c r="Y2" s="1"/>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="X3" s="5"/>
+      <c r="Y3" s="1"/>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5"/>
+      <c r="X4" s="5"/>
+      <c r="Y4" s="1"/>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A5" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="M5" s="36"/>
+      <c r="N5" s="36"/>
+      <c r="O5" s="36"/>
+      <c r="P5" s="36"/>
+      <c r="Q5" s="36"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="T5" s="36"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="W5" s="36"/>
+      <c r="X5" s="36"/>
+      <c r="Y5" s="36"/>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="E6" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="11">
+        <v>0.4</v>
+      </c>
+      <c r="K6" s="9"/>
+      <c r="L6" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="M6" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="N6" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="O6" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="P6" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q6" s="11">
+        <v>0.4</v>
+      </c>
+      <c r="R6" s="9"/>
+      <c r="S6" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="T6" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="U6" s="9"/>
+      <c r="V6" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="W6" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="X6" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y6" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A7" s="12">
         <v>1</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B7" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="14"/>
+      <c r="E7" s="15">
+        <v>100</v>
+      </c>
+      <c r="F7" s="15">
+        <v>100</v>
+      </c>
+      <c r="G7" s="15">
+        <v>100</v>
+      </c>
+      <c r="H7" s="15">
+        <v>100</v>
+      </c>
+      <c r="I7" s="16">
+        <f>SUM(E7:H7)/4</f>
+        <v>100</v>
+      </c>
+      <c r="J7" s="17">
+        <f>I7*0.4</f>
+        <v>40</v>
+      </c>
+      <c r="K7" s="14"/>
+      <c r="L7" s="15">
+        <v>100</v>
+      </c>
+      <c r="M7" s="15">
+        <v>100</v>
+      </c>
+      <c r="N7" s="15">
+        <v>100</v>
+      </c>
+      <c r="O7" s="15">
+        <v>100</v>
+      </c>
+      <c r="P7" s="16">
+        <f>SUM(L7:O7)/4</f>
+        <v>100</v>
+      </c>
+      <c r="Q7" s="17">
+        <f>P7*0.4</f>
+        <v>40</v>
+      </c>
+      <c r="R7" s="14"/>
+      <c r="S7" s="15">
+        <v>20</v>
+      </c>
+      <c r="T7" s="18">
+        <f>S7</f>
+        <v>20</v>
+      </c>
+      <c r="U7" s="14"/>
+      <c r="V7" s="19">
+        <f>J7+Q7+T7</f>
+        <v>100</v>
+      </c>
+      <c r="W7" s="20"/>
+      <c r="X7" s="19">
+        <f>V7+W7</f>
+        <v>100</v>
+      </c>
+      <c r="Y7" s="21" t="str">
+        <f>IF(X7&gt;=98,"4.0",IF(X7&gt;=94,"3.5",IF(X7&gt;=91,"3.0",IF(X7&gt;=87,"2.5",IF(X7&gt;=83,"2.0",IF(X7&gt;=79,"1.5",IF(X7&gt;=75,"1.0","Failed")))))))</f>
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A8" s="22">
+        <v>2</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="14"/>
+      <c r="E8" s="24">
+        <v>100</v>
+      </c>
+      <c r="F8" s="24">
+        <v>100</v>
+      </c>
+      <c r="G8" s="24">
+        <v>100</v>
+      </c>
+      <c r="H8" s="24">
+        <v>100</v>
+      </c>
+      <c r="I8" s="16">
+        <f t="shared" ref="I8:I11" si="0">SUM(E8:H8)/4</f>
+        <v>100</v>
+      </c>
+      <c r="J8" s="17">
+        <f t="shared" ref="J8:J11" si="1">I8*0.4</f>
+        <v>40</v>
+      </c>
+      <c r="K8" s="14"/>
+      <c r="L8" s="24">
+        <v>100</v>
+      </c>
+      <c r="M8" s="24">
+        <v>100</v>
+      </c>
+      <c r="N8" s="24">
+        <v>100</v>
+      </c>
+      <c r="O8" s="24">
+        <v>100</v>
+      </c>
+      <c r="P8" s="16">
+        <f t="shared" ref="P8:P11" si="2">SUM(L8:O8)/4</f>
+        <v>100</v>
+      </c>
+      <c r="Q8" s="17">
+        <f t="shared" ref="Q8:Q11" si="3">P8*0.4</f>
+        <v>40</v>
+      </c>
+      <c r="R8" s="14"/>
+      <c r="S8" s="24">
+        <v>20</v>
+      </c>
+      <c r="T8" s="18">
+        <f t="shared" ref="T8:T11" si="4">S8</f>
+        <v>20</v>
+      </c>
+      <c r="U8" s="14"/>
+      <c r="V8" s="19">
+        <f>J8+Q8+T8</f>
+        <v>100</v>
+      </c>
+      <c r="W8" s="24"/>
+      <c r="X8" s="19">
+        <f t="shared" ref="X8:X11" si="5">V8+W8</f>
+        <v>100</v>
+      </c>
+      <c r="Y8" s="21" t="str">
+        <f>IF(X8&gt;=98,"4.0",IF(X8&gt;=94,"3.5",IF(X8&gt;=91,"3.0",IF(X8&gt;=87,"2.5",IF(X8&gt;=83,"2.0",IF(X8&gt;=79,"1.5",IF(X8&gt;=75,"1.0","Failed")))))))</f>
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A9" s="12">
+        <v>3</v>
+      </c>
+      <c r="B9" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="14"/>
+      <c r="E9" s="15">
+        <v>100</v>
+      </c>
+      <c r="F9" s="15">
+        <v>100</v>
+      </c>
+      <c r="G9" s="15">
+        <v>100</v>
+      </c>
+      <c r="H9" s="15">
+        <v>100</v>
+      </c>
+      <c r="I9" s="16">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="J9" s="17">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="K9" s="14"/>
+      <c r="L9" s="15">
+        <v>100</v>
+      </c>
+      <c r="M9" s="15">
+        <v>100</v>
+      </c>
+      <c r="N9" s="15">
+        <v>100</v>
+      </c>
+      <c r="O9" s="15">
+        <v>100</v>
+      </c>
+      <c r="P9" s="16">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="Q9" s="17">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+      <c r="R9" s="14"/>
+      <c r="S9" s="15">
+        <v>20</v>
+      </c>
+      <c r="T9" s="18">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="U9" s="14"/>
+      <c r="V9" s="19">
+        <f>J9+Q9+T9</f>
+        <v>100</v>
+      </c>
+      <c r="W9" s="20"/>
+      <c r="X9" s="19">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+      <c r="Y9" s="21" t="str">
+        <f>IF(X9&gt;=98,"4.0",IF(X9&gt;=94,"3.5",IF(X9&gt;=91,"3.0",IF(X9&gt;=87,"2.5",IF(X9&gt;=83,"2.0",IF(X9&gt;=79,"1.5",IF(X9&gt;=75,"1.0","Failed")))))))</f>
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A10" s="22">
+        <v>4</v>
+      </c>
+      <c r="B10" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="14"/>
+      <c r="E10" s="24">
+        <v>100</v>
+      </c>
+      <c r="F10" s="24">
+        <v>100</v>
+      </c>
+      <c r="G10" s="24">
+        <v>100</v>
+      </c>
+      <c r="H10" s="24">
+        <v>100</v>
+      </c>
+      <c r="I10" s="16">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="J10" s="17">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="K10" s="14"/>
+      <c r="L10" s="24">
+        <v>100</v>
+      </c>
+      <c r="M10" s="24">
+        <v>100</v>
+      </c>
+      <c r="N10" s="24">
+        <v>100</v>
+      </c>
+      <c r="O10" s="24">
+        <v>100</v>
+      </c>
+      <c r="P10" s="16">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="Q10" s="17">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+      <c r="R10" s="14"/>
+      <c r="S10" s="24">
+        <v>20</v>
+      </c>
+      <c r="T10" s="18">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="U10" s="14"/>
+      <c r="V10" s="19">
+        <f>J10+Q10+T10</f>
+        <v>100</v>
+      </c>
+      <c r="W10" s="24"/>
+      <c r="X10" s="19">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+      <c r="Y10" s="21" t="str">
+        <f t="shared" ref="Y10:Y11" si="6">IF(X10&gt;=98,"4.0",IF(X10&gt;=94,"3.5",IF(X10&gt;=91,"3.0",IF(X10&gt;=87,"2.5",IF(X10&gt;=83,"2.0",IF(X10&gt;=79,"1.5",IF(X10&gt;=75,"1.0","Failed")))))))</f>
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A11" s="12">
         <v>5</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
-        <v>2</v>
-      </c>
-      <c r="B4" s="6" t="s">
+      <c r="B11" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="14"/>
+      <c r="E11" s="15">
+        <v>100</v>
+      </c>
+      <c r="F11" s="15">
+        <v>100</v>
+      </c>
+      <c r="G11" s="15">
+        <v>100</v>
+      </c>
+      <c r="H11" s="15">
+        <v>100</v>
+      </c>
+      <c r="I11" s="16">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="J11" s="17">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="K11" s="14"/>
+      <c r="L11" s="15">
+        <v>100</v>
+      </c>
+      <c r="M11" s="15">
+        <v>100</v>
+      </c>
+      <c r="N11" s="15">
+        <v>100</v>
+      </c>
+      <c r="O11" s="15">
+        <v>100</v>
+      </c>
+      <c r="P11" s="16">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="Q11" s="17">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+      <c r="R11" s="14"/>
+      <c r="S11" s="24">
+        <v>10</v>
+      </c>
+      <c r="T11" s="18">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="U11" s="14"/>
+      <c r="V11" s="19">
+        <f>J11+Q11+T11</f>
+        <v>90</v>
+      </c>
+      <c r="W11" s="20"/>
+      <c r="X11" s="19">
+        <f t="shared" si="5"/>
+        <v>90</v>
+      </c>
+      <c r="Y11" s="21" t="str">
+        <f t="shared" si="6"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A12" s="22">
         <v>6</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>3</v>
-      </c>
-      <c r="B5" s="7" t="s">
+      <c r="B12" s="32"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="16">
+        <f t="shared" ref="I12:I66" si="7">SUM(E12:H12)/4</f>
+        <v>0</v>
+      </c>
+      <c r="J12" s="17">
+        <f t="shared" ref="J12:J66" si="8">I12*0.4</f>
+        <v>0</v>
+      </c>
+      <c r="K12" s="14"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="24"/>
+      <c r="O12" s="24"/>
+      <c r="P12" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="26">
+        <v>0</v>
+      </c>
+      <c r="R12" s="14"/>
+      <c r="S12" s="24"/>
+      <c r="T12" s="26">
+        <v>0</v>
+      </c>
+      <c r="U12" s="14"/>
+      <c r="V12" s="27">
+        <v>0</v>
+      </c>
+      <c r="W12" s="24"/>
+      <c r="X12" s="27">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="28" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A13" s="12">
         <v>7</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="17">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="14"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="17">
+        <v>0</v>
+      </c>
+      <c r="R13" s="14"/>
+      <c r="S13" s="15"/>
+      <c r="T13" s="18">
+        <v>0</v>
+      </c>
+      <c r="U13" s="14"/>
+      <c r="V13" s="19">
+        <v>0</v>
+      </c>
+      <c r="W13" s="20"/>
+      <c r="X13" s="19">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A14" s="22">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
-        <v>4</v>
-      </c>
-      <c r="B6" s="8" t="s">
+      <c r="B14" s="32"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="17">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K14" s="14"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="24"/>
+      <c r="N14" s="24"/>
+      <c r="O14" s="24"/>
+      <c r="P14" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="26">
+        <v>0</v>
+      </c>
+      <c r="R14" s="14"/>
+      <c r="S14" s="24"/>
+      <c r="T14" s="26">
+        <v>0</v>
+      </c>
+      <c r="U14" s="14"/>
+      <c r="V14" s="27">
+        <v>0</v>
+      </c>
+      <c r="W14" s="24"/>
+      <c r="X14" s="27">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="28" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A15" s="12">
         <v>9</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J15" s="17">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K15" s="14"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="17">
+        <v>0</v>
+      </c>
+      <c r="R15" s="14"/>
+      <c r="S15" s="15"/>
+      <c r="T15" s="18">
+        <v>0</v>
+      </c>
+      <c r="U15" s="14"/>
+      <c r="V15" s="19">
+        <v>0</v>
+      </c>
+      <c r="W15" s="20"/>
+      <c r="X15" s="19">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A16" s="22">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>5</v>
-      </c>
-      <c r="B7" s="4" t="s">
+      <c r="B16" s="32"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J16" s="17">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K16" s="14"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="24"/>
+      <c r="N16" s="24"/>
+      <c r="O16" s="24"/>
+      <c r="P16" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="26">
+        <v>0</v>
+      </c>
+      <c r="R16" s="14"/>
+      <c r="S16" s="24"/>
+      <c r="T16" s="26">
+        <v>0</v>
+      </c>
+      <c r="U16" s="14"/>
+      <c r="V16" s="27">
+        <v>0</v>
+      </c>
+      <c r="W16" s="24"/>
+      <c r="X16" s="27">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="28" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A17" s="12">
         <v>11</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="B17" s="31"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J17" s="17">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K17" s="14"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="15"/>
+      <c r="P17" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="17">
+        <v>0</v>
+      </c>
+      <c r="R17" s="14"/>
+      <c r="S17" s="15"/>
+      <c r="T17" s="18">
+        <v>0</v>
+      </c>
+      <c r="U17" s="14"/>
+      <c r="V17" s="19">
+        <v>0</v>
+      </c>
+      <c r="W17" s="20"/>
+      <c r="X17" s="19">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A18" s="22">
         <v>12</v>
       </c>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="17">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K18" s="14"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="24"/>
+      <c r="N18" s="24"/>
+      <c r="O18" s="24"/>
+      <c r="P18" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="26">
+        <v>0</v>
+      </c>
+      <c r="R18" s="14"/>
+      <c r="S18" s="24"/>
+      <c r="T18" s="26">
+        <v>0</v>
+      </c>
+      <c r="U18" s="14"/>
+      <c r="V18" s="27">
+        <v>0</v>
+      </c>
+      <c r="W18" s="24"/>
+      <c r="X18" s="27">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="28" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A19" s="12">
+        <v>13</v>
+      </c>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="17">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K19" s="14"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="15"/>
+      <c r="N19" s="15"/>
+      <c r="O19" s="15"/>
+      <c r="P19" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="17">
+        <v>0</v>
+      </c>
+      <c r="R19" s="14"/>
+      <c r="S19" s="15"/>
+      <c r="T19" s="18">
+        <v>0</v>
+      </c>
+      <c r="U19" s="14"/>
+      <c r="V19" s="19">
+        <v>0</v>
+      </c>
+      <c r="W19" s="20"/>
+      <c r="X19" s="19">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A20" s="22">
+        <v>14</v>
+      </c>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J20" s="17">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K20" s="14"/>
+      <c r="L20" s="24"/>
+      <c r="M20" s="24"/>
+      <c r="N20" s="24"/>
+      <c r="O20" s="24"/>
+      <c r="P20" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="26">
+        <v>0</v>
+      </c>
+      <c r="R20" s="14"/>
+      <c r="S20" s="24"/>
+      <c r="T20" s="26">
+        <v>0</v>
+      </c>
+      <c r="U20" s="14"/>
+      <c r="V20" s="27">
+        <v>0</v>
+      </c>
+      <c r="W20" s="24"/>
+      <c r="X20" s="27">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="28" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A21" s="12">
+        <v>15</v>
+      </c>
+      <c r="B21" s="31"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J21" s="17">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K21" s="14"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="15"/>
+      <c r="O21" s="15"/>
+      <c r="P21" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="17">
+        <v>0</v>
+      </c>
+      <c r="R21" s="14"/>
+      <c r="S21" s="15"/>
+      <c r="T21" s="18">
+        <v>0</v>
+      </c>
+      <c r="U21" s="14"/>
+      <c r="V21" s="19">
+        <v>0</v>
+      </c>
+      <c r="W21" s="20"/>
+      <c r="X21" s="19">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A22" s="22">
+        <v>16</v>
+      </c>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J22" s="17">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K22" s="14"/>
+      <c r="L22" s="24"/>
+      <c r="M22" s="24"/>
+      <c r="N22" s="24"/>
+      <c r="O22" s="24"/>
+      <c r="P22" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="26">
+        <v>0</v>
+      </c>
+      <c r="R22" s="14"/>
+      <c r="S22" s="24"/>
+      <c r="T22" s="26">
+        <v>0</v>
+      </c>
+      <c r="U22" s="14"/>
+      <c r="V22" s="27">
+        <v>0</v>
+      </c>
+      <c r="W22" s="24"/>
+      <c r="X22" s="27">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="28" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A23" s="12">
+        <v>17</v>
+      </c>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J23" s="17">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K23" s="14"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="15"/>
+      <c r="O23" s="15"/>
+      <c r="P23" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="17">
+        <v>0</v>
+      </c>
+      <c r="R23" s="14"/>
+      <c r="S23" s="15"/>
+      <c r="T23" s="18">
+        <v>0</v>
+      </c>
+      <c r="U23" s="14"/>
+      <c r="V23" s="19">
+        <v>0</v>
+      </c>
+      <c r="W23" s="20"/>
+      <c r="X23" s="19">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A24" s="22">
+        <v>18</v>
+      </c>
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J24" s="17">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K24" s="14"/>
+      <c r="L24" s="24"/>
+      <c r="M24" s="24"/>
+      <c r="N24" s="24"/>
+      <c r="O24" s="24"/>
+      <c r="P24" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="26">
+        <v>0</v>
+      </c>
+      <c r="R24" s="14"/>
+      <c r="S24" s="24"/>
+      <c r="T24" s="26">
+        <v>0</v>
+      </c>
+      <c r="U24" s="14"/>
+      <c r="V24" s="27">
+        <v>0</v>
+      </c>
+      <c r="W24" s="24"/>
+      <c r="X24" s="27">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="28" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A25" s="12">
+        <v>19</v>
+      </c>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J25" s="17">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K25" s="14"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="15"/>
+      <c r="O25" s="15"/>
+      <c r="P25" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="17">
+        <v>0</v>
+      </c>
+      <c r="R25" s="14"/>
+      <c r="S25" s="15"/>
+      <c r="T25" s="18">
+        <v>0</v>
+      </c>
+      <c r="U25" s="14"/>
+      <c r="V25" s="19">
+        <v>0</v>
+      </c>
+      <c r="W25" s="20"/>
+      <c r="X25" s="19">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A26" s="22">
+        <v>20</v>
+      </c>
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J26" s="17">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K26" s="14"/>
+      <c r="L26" s="24"/>
+      <c r="M26" s="24"/>
+      <c r="N26" s="24"/>
+      <c r="O26" s="24"/>
+      <c r="P26" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="26">
+        <v>0</v>
+      </c>
+      <c r="R26" s="14"/>
+      <c r="S26" s="24"/>
+      <c r="T26" s="26">
+        <v>0</v>
+      </c>
+      <c r="U26" s="14"/>
+      <c r="V26" s="27">
+        <v>0</v>
+      </c>
+      <c r="W26" s="24"/>
+      <c r="X26" s="27">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="28" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A27" s="12">
+        <v>21</v>
+      </c>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J27" s="17">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K27" s="14"/>
+      <c r="L27" s="15"/>
+      <c r="M27" s="15"/>
+      <c r="N27" s="15"/>
+      <c r="O27" s="15"/>
+      <c r="P27" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="17">
+        <v>0</v>
+      </c>
+      <c r="R27" s="14"/>
+      <c r="S27" s="15"/>
+      <c r="T27" s="18">
+        <v>0</v>
+      </c>
+      <c r="U27" s="14"/>
+      <c r="V27" s="19">
+        <v>0</v>
+      </c>
+      <c r="W27" s="20"/>
+      <c r="X27" s="19">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A28" s="22">
+        <v>22</v>
+      </c>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J28" s="17">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K28" s="14"/>
+      <c r="L28" s="24"/>
+      <c r="M28" s="24"/>
+      <c r="N28" s="24"/>
+      <c r="O28" s="24"/>
+      <c r="P28" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="26">
+        <v>0</v>
+      </c>
+      <c r="R28" s="14"/>
+      <c r="S28" s="24"/>
+      <c r="T28" s="26">
+        <v>0</v>
+      </c>
+      <c r="U28" s="14"/>
+      <c r="V28" s="27">
+        <v>0</v>
+      </c>
+      <c r="W28" s="24"/>
+      <c r="X28" s="27">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="28" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A29" s="12">
+        <v>23</v>
+      </c>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J29" s="17">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K29" s="14"/>
+      <c r="L29" s="15"/>
+      <c r="M29" s="15"/>
+      <c r="N29" s="15"/>
+      <c r="O29" s="15"/>
+      <c r="P29" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="17">
+        <v>0</v>
+      </c>
+      <c r="R29" s="14"/>
+      <c r="S29" s="15"/>
+      <c r="T29" s="18">
+        <v>0</v>
+      </c>
+      <c r="U29" s="14"/>
+      <c r="V29" s="19">
+        <v>0</v>
+      </c>
+      <c r="W29" s="20"/>
+      <c r="X29" s="19">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A30" s="22">
+        <v>24</v>
+      </c>
+      <c r="B30" s="23"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J30" s="17">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K30" s="14"/>
+      <c r="L30" s="24"/>
+      <c r="M30" s="24"/>
+      <c r="N30" s="24"/>
+      <c r="O30" s="24"/>
+      <c r="P30" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="26">
+        <v>0</v>
+      </c>
+      <c r="R30" s="14"/>
+      <c r="S30" s="24"/>
+      <c r="T30" s="26">
+        <v>0</v>
+      </c>
+      <c r="U30" s="14"/>
+      <c r="V30" s="27">
+        <v>0</v>
+      </c>
+      <c r="W30" s="24"/>
+      <c r="X30" s="27">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="28" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A31" s="12">
+        <v>25</v>
+      </c>
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J31" s="17">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K31" s="14"/>
+      <c r="L31" s="15"/>
+      <c r="M31" s="15"/>
+      <c r="N31" s="15"/>
+      <c r="O31" s="15"/>
+      <c r="P31" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="17">
+        <v>0</v>
+      </c>
+      <c r="R31" s="14"/>
+      <c r="S31" s="15"/>
+      <c r="T31" s="18">
+        <v>0</v>
+      </c>
+      <c r="U31" s="14"/>
+      <c r="V31" s="19">
+        <v>0</v>
+      </c>
+      <c r="W31" s="20"/>
+      <c r="X31" s="19">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A32" s="22">
+        <v>26</v>
+      </c>
+      <c r="B32" s="23"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="24"/>
+      <c r="H32" s="24"/>
+      <c r="I32" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J32" s="17">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K32" s="14"/>
+      <c r="L32" s="24"/>
+      <c r="M32" s="24"/>
+      <c r="N32" s="24"/>
+      <c r="O32" s="24"/>
+      <c r="P32" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="26">
+        <v>0</v>
+      </c>
+      <c r="R32" s="14"/>
+      <c r="S32" s="24"/>
+      <c r="T32" s="26">
+        <v>0</v>
+      </c>
+      <c r="U32" s="14"/>
+      <c r="V32" s="27">
+        <v>0</v>
+      </c>
+      <c r="W32" s="24"/>
+      <c r="X32" s="27">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="28" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A33" s="12">
+        <v>27</v>
+      </c>
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J33" s="17">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K33" s="14"/>
+      <c r="L33" s="15"/>
+      <c r="M33" s="15"/>
+      <c r="N33" s="15"/>
+      <c r="O33" s="15"/>
+      <c r="P33" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="17">
+        <v>0</v>
+      </c>
+      <c r="R33" s="14"/>
+      <c r="S33" s="15"/>
+      <c r="T33" s="18">
+        <v>0</v>
+      </c>
+      <c r="U33" s="14"/>
+      <c r="V33" s="19">
+        <v>0</v>
+      </c>
+      <c r="W33" s="20"/>
+      <c r="X33" s="19">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A34" s="22">
+        <v>28</v>
+      </c>
+      <c r="B34" s="23"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="24"/>
+      <c r="H34" s="24"/>
+      <c r="I34" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J34" s="17">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K34" s="14"/>
+      <c r="L34" s="24"/>
+      <c r="M34" s="24"/>
+      <c r="N34" s="24"/>
+      <c r="O34" s="24"/>
+      <c r="P34" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="26">
+        <v>0</v>
+      </c>
+      <c r="R34" s="14"/>
+      <c r="S34" s="24"/>
+      <c r="T34" s="26">
+        <v>0</v>
+      </c>
+      <c r="U34" s="14"/>
+      <c r="V34" s="27">
+        <v>0</v>
+      </c>
+      <c r="W34" s="24"/>
+      <c r="X34" s="27">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="28" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A35" s="12">
+        <v>29</v>
+      </c>
+      <c r="B35" s="13"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J35" s="17">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K35" s="14"/>
+      <c r="L35" s="15"/>
+      <c r="M35" s="15"/>
+      <c r="N35" s="15"/>
+      <c r="O35" s="15"/>
+      <c r="P35" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="17">
+        <v>0</v>
+      </c>
+      <c r="R35" s="14"/>
+      <c r="S35" s="15"/>
+      <c r="T35" s="18">
+        <v>0</v>
+      </c>
+      <c r="U35" s="14"/>
+      <c r="V35" s="19">
+        <v>0</v>
+      </c>
+      <c r="W35" s="20"/>
+      <c r="X35" s="19">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A36" s="22">
+        <v>30</v>
+      </c>
+      <c r="B36" s="23"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="24"/>
+      <c r="G36" s="24"/>
+      <c r="H36" s="24"/>
+      <c r="I36" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J36" s="17">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K36" s="14"/>
+      <c r="L36" s="24"/>
+      <c r="M36" s="24"/>
+      <c r="N36" s="24"/>
+      <c r="O36" s="24"/>
+      <c r="P36" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="26">
+        <v>0</v>
+      </c>
+      <c r="R36" s="14"/>
+      <c r="S36" s="24"/>
+      <c r="T36" s="26">
+        <v>0</v>
+      </c>
+      <c r="U36" s="14"/>
+      <c r="V36" s="27">
+        <v>0</v>
+      </c>
+      <c r="W36" s="24"/>
+      <c r="X36" s="27">
+        <v>0</v>
+      </c>
+      <c r="Y36" s="28" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A37" s="12">
+        <v>31</v>
+      </c>
+      <c r="B37" s="13"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="15"/>
+      <c r="I37" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J37" s="17">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K37" s="14"/>
+      <c r="L37" s="15"/>
+      <c r="M37" s="15"/>
+      <c r="N37" s="15"/>
+      <c r="O37" s="15"/>
+      <c r="P37" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="17">
+        <v>0</v>
+      </c>
+      <c r="R37" s="14"/>
+      <c r="S37" s="15"/>
+      <c r="T37" s="18">
+        <v>0</v>
+      </c>
+      <c r="U37" s="14"/>
+      <c r="V37" s="19">
+        <v>0</v>
+      </c>
+      <c r="W37" s="20"/>
+      <c r="X37" s="19">
+        <v>0</v>
+      </c>
+      <c r="Y37" s="21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A38" s="22">
+        <v>32</v>
+      </c>
+      <c r="B38" s="23"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="24"/>
+      <c r="G38" s="24"/>
+      <c r="H38" s="24"/>
+      <c r="I38" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J38" s="17">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K38" s="14"/>
+      <c r="L38" s="24"/>
+      <c r="M38" s="24"/>
+      <c r="N38" s="24"/>
+      <c r="O38" s="24"/>
+      <c r="P38" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="26">
+        <v>0</v>
+      </c>
+      <c r="R38" s="14"/>
+      <c r="S38" s="24"/>
+      <c r="T38" s="26">
+        <v>0</v>
+      </c>
+      <c r="U38" s="14"/>
+      <c r="V38" s="27">
+        <v>0</v>
+      </c>
+      <c r="W38" s="24"/>
+      <c r="X38" s="27">
+        <v>0</v>
+      </c>
+      <c r="Y38" s="28" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A39" s="12">
+        <v>33</v>
+      </c>
+      <c r="B39" s="13"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="15"/>
+      <c r="H39" s="15"/>
+      <c r="I39" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J39" s="17">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K39" s="14"/>
+      <c r="L39" s="15"/>
+      <c r="M39" s="15"/>
+      <c r="N39" s="15"/>
+      <c r="O39" s="15"/>
+      <c r="P39" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="17">
+        <v>0</v>
+      </c>
+      <c r="R39" s="14"/>
+      <c r="S39" s="15"/>
+      <c r="T39" s="18">
+        <v>0</v>
+      </c>
+      <c r="U39" s="14"/>
+      <c r="V39" s="19">
+        <v>0</v>
+      </c>
+      <c r="W39" s="20"/>
+      <c r="X39" s="19">
+        <v>0</v>
+      </c>
+      <c r="Y39" s="21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A40" s="22">
+        <v>34</v>
+      </c>
+      <c r="B40" s="23"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="24"/>
+      <c r="G40" s="24"/>
+      <c r="H40" s="24"/>
+      <c r="I40" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J40" s="17">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K40" s="14"/>
+      <c r="L40" s="24"/>
+      <c r="M40" s="24"/>
+      <c r="N40" s="24"/>
+      <c r="O40" s="24"/>
+      <c r="P40" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="26">
+        <v>0</v>
+      </c>
+      <c r="R40" s="14"/>
+      <c r="S40" s="24"/>
+      <c r="T40" s="26">
+        <v>0</v>
+      </c>
+      <c r="U40" s="14"/>
+      <c r="V40" s="27">
+        <v>0</v>
+      </c>
+      <c r="W40" s="24"/>
+      <c r="X40" s="27">
+        <v>0</v>
+      </c>
+      <c r="Y40" s="28" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A41" s="12">
+        <v>35</v>
+      </c>
+      <c r="B41" s="13"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="15"/>
+      <c r="H41" s="15"/>
+      <c r="I41" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J41" s="17">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K41" s="14"/>
+      <c r="L41" s="15"/>
+      <c r="M41" s="15"/>
+      <c r="N41" s="15"/>
+      <c r="O41" s="15"/>
+      <c r="P41" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="17">
+        <v>0</v>
+      </c>
+      <c r="R41" s="14"/>
+      <c r="S41" s="15"/>
+      <c r="T41" s="18">
+        <v>0</v>
+      </c>
+      <c r="U41" s="14"/>
+      <c r="V41" s="19">
+        <v>0</v>
+      </c>
+      <c r="W41" s="20"/>
+      <c r="X41" s="19">
+        <v>0</v>
+      </c>
+      <c r="Y41" s="21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A42" s="22">
+        <v>36</v>
+      </c>
+      <c r="B42" s="23"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="24"/>
+      <c r="F42" s="24"/>
+      <c r="G42" s="24"/>
+      <c r="H42" s="24"/>
+      <c r="I42" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J42" s="17">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K42" s="14"/>
+      <c r="L42" s="24"/>
+      <c r="M42" s="24"/>
+      <c r="N42" s="24"/>
+      <c r="O42" s="24"/>
+      <c r="P42" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="26">
+        <v>0</v>
+      </c>
+      <c r="R42" s="14"/>
+      <c r="S42" s="24"/>
+      <c r="T42" s="26">
+        <v>0</v>
+      </c>
+      <c r="U42" s="14"/>
+      <c r="V42" s="27">
+        <v>0</v>
+      </c>
+      <c r="W42" s="24"/>
+      <c r="X42" s="27">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="28" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A43" s="12">
+        <v>37</v>
+      </c>
+      <c r="B43" s="13"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="15"/>
+      <c r="H43" s="15"/>
+      <c r="I43" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J43" s="17">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K43" s="14"/>
+      <c r="L43" s="15"/>
+      <c r="M43" s="15"/>
+      <c r="N43" s="15"/>
+      <c r="O43" s="15"/>
+      <c r="P43" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="17">
+        <v>0</v>
+      </c>
+      <c r="R43" s="14"/>
+      <c r="S43" s="15"/>
+      <c r="T43" s="18">
+        <v>0</v>
+      </c>
+      <c r="U43" s="14"/>
+      <c r="V43" s="19">
+        <v>0</v>
+      </c>
+      <c r="W43" s="20"/>
+      <c r="X43" s="19">
+        <v>0</v>
+      </c>
+      <c r="Y43" s="21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A44" s="22">
+        <v>38</v>
+      </c>
+      <c r="B44" s="23"/>
+      <c r="C44" s="23"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="24"/>
+      <c r="F44" s="24"/>
+      <c r="G44" s="24"/>
+      <c r="H44" s="24"/>
+      <c r="I44" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J44" s="17">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K44" s="14"/>
+      <c r="L44" s="24"/>
+      <c r="M44" s="24"/>
+      <c r="N44" s="24"/>
+      <c r="O44" s="24"/>
+      <c r="P44" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="26">
+        <v>0</v>
+      </c>
+      <c r="R44" s="14"/>
+      <c r="S44" s="24"/>
+      <c r="T44" s="26">
+        <v>0</v>
+      </c>
+      <c r="U44" s="14"/>
+      <c r="V44" s="27">
+        <v>0</v>
+      </c>
+      <c r="W44" s="24"/>
+      <c r="X44" s="27">
+        <v>0</v>
+      </c>
+      <c r="Y44" s="28" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A45" s="12">
+        <v>39</v>
+      </c>
+      <c r="B45" s="13"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="15"/>
+      <c r="G45" s="15"/>
+      <c r="H45" s="15"/>
+      <c r="I45" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J45" s="17">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K45" s="14"/>
+      <c r="L45" s="15"/>
+      <c r="M45" s="15"/>
+      <c r="N45" s="15"/>
+      <c r="O45" s="15"/>
+      <c r="P45" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="17">
+        <v>0</v>
+      </c>
+      <c r="R45" s="14"/>
+      <c r="S45" s="15"/>
+      <c r="T45" s="18">
+        <v>0</v>
+      </c>
+      <c r="U45" s="14"/>
+      <c r="V45" s="19">
+        <v>0</v>
+      </c>
+      <c r="W45" s="20"/>
+      <c r="X45" s="19">
+        <v>0</v>
+      </c>
+      <c r="Y45" s="21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A46" s="22">
+        <v>40</v>
+      </c>
+      <c r="B46" s="23"/>
+      <c r="C46" s="23"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="24"/>
+      <c r="F46" s="24"/>
+      <c r="G46" s="24"/>
+      <c r="H46" s="24"/>
+      <c r="I46" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J46" s="17">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K46" s="14"/>
+      <c r="L46" s="24"/>
+      <c r="M46" s="24"/>
+      <c r="N46" s="24"/>
+      <c r="O46" s="24"/>
+      <c r="P46" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="26">
+        <v>0</v>
+      </c>
+      <c r="R46" s="14"/>
+      <c r="S46" s="24"/>
+      <c r="T46" s="26">
+        <v>0</v>
+      </c>
+      <c r="U46" s="14"/>
+      <c r="V46" s="27">
+        <v>0</v>
+      </c>
+      <c r="W46" s="24"/>
+      <c r="X46" s="27">
+        <v>0</v>
+      </c>
+      <c r="Y46" s="28" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A47" s="12">
+        <v>41</v>
+      </c>
+      <c r="B47" s="13"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="15"/>
+      <c r="F47" s="15"/>
+      <c r="G47" s="15"/>
+      <c r="H47" s="15"/>
+      <c r="I47" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J47" s="17">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K47" s="14"/>
+      <c r="L47" s="15"/>
+      <c r="M47" s="15"/>
+      <c r="N47" s="15"/>
+      <c r="O47" s="15"/>
+      <c r="P47" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="17">
+        <v>0</v>
+      </c>
+      <c r="R47" s="14"/>
+      <c r="S47" s="15"/>
+      <c r="T47" s="18">
+        <v>0</v>
+      </c>
+      <c r="U47" s="14"/>
+      <c r="V47" s="19">
+        <v>0</v>
+      </c>
+      <c r="W47" s="20"/>
+      <c r="X47" s="19">
+        <v>0</v>
+      </c>
+      <c r="Y47" s="21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A48" s="22">
+        <v>42</v>
+      </c>
+      <c r="B48" s="23"/>
+      <c r="C48" s="23"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="24"/>
+      <c r="F48" s="24"/>
+      <c r="G48" s="24"/>
+      <c r="H48" s="24"/>
+      <c r="I48" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J48" s="17">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K48" s="14"/>
+      <c r="L48" s="24"/>
+      <c r="M48" s="24"/>
+      <c r="N48" s="24"/>
+      <c r="O48" s="24"/>
+      <c r="P48" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="26">
+        <v>0</v>
+      </c>
+      <c r="R48" s="14"/>
+      <c r="S48" s="24"/>
+      <c r="T48" s="26">
+        <v>0</v>
+      </c>
+      <c r="U48" s="14"/>
+      <c r="V48" s="27">
+        <v>0</v>
+      </c>
+      <c r="W48" s="24"/>
+      <c r="X48" s="27">
+        <v>0</v>
+      </c>
+      <c r="Y48" s="28" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A49" s="12">
+        <v>43</v>
+      </c>
+      <c r="B49" s="13"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="15"/>
+      <c r="F49" s="15"/>
+      <c r="G49" s="15"/>
+      <c r="H49" s="15"/>
+      <c r="I49" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J49" s="17">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K49" s="14"/>
+      <c r="L49" s="15"/>
+      <c r="M49" s="15"/>
+      <c r="N49" s="15"/>
+      <c r="O49" s="15"/>
+      <c r="P49" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="17">
+        <v>0</v>
+      </c>
+      <c r="R49" s="14"/>
+      <c r="S49" s="15"/>
+      <c r="T49" s="18">
+        <v>0</v>
+      </c>
+      <c r="U49" s="14"/>
+      <c r="V49" s="19">
+        <v>0</v>
+      </c>
+      <c r="W49" s="20"/>
+      <c r="X49" s="19">
+        <v>0</v>
+      </c>
+      <c r="Y49" s="21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A50" s="22">
+        <v>44</v>
+      </c>
+      <c r="B50" s="23"/>
+      <c r="C50" s="23"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="24"/>
+      <c r="F50" s="24"/>
+      <c r="G50" s="24"/>
+      <c r="H50" s="24"/>
+      <c r="I50" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J50" s="17">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K50" s="14"/>
+      <c r="L50" s="24"/>
+      <c r="M50" s="24"/>
+      <c r="N50" s="24"/>
+      <c r="O50" s="24"/>
+      <c r="P50" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="26">
+        <v>0</v>
+      </c>
+      <c r="R50" s="14"/>
+      <c r="S50" s="24"/>
+      <c r="T50" s="26">
+        <v>0</v>
+      </c>
+      <c r="U50" s="14"/>
+      <c r="V50" s="27">
+        <v>0</v>
+      </c>
+      <c r="W50" s="24"/>
+      <c r="X50" s="27">
+        <v>0</v>
+      </c>
+      <c r="Y50" s="28" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A51" s="12">
+        <v>45</v>
+      </c>
+      <c r="B51" s="13"/>
+      <c r="C51" s="13"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="15"/>
+      <c r="F51" s="15"/>
+      <c r="G51" s="15"/>
+      <c r="H51" s="15"/>
+      <c r="I51" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J51" s="17">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K51" s="14"/>
+      <c r="L51" s="15"/>
+      <c r="M51" s="15"/>
+      <c r="N51" s="15"/>
+      <c r="O51" s="15"/>
+      <c r="P51" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="17">
+        <v>0</v>
+      </c>
+      <c r="R51" s="14"/>
+      <c r="S51" s="15"/>
+      <c r="T51" s="18">
+        <v>0</v>
+      </c>
+      <c r="U51" s="14"/>
+      <c r="V51" s="19">
+        <v>0</v>
+      </c>
+      <c r="W51" s="20"/>
+      <c r="X51" s="19">
+        <v>0</v>
+      </c>
+      <c r="Y51" s="21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A52" s="22">
+        <v>46</v>
+      </c>
+      <c r="B52" s="23"/>
+      <c r="C52" s="23"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="24"/>
+      <c r="F52" s="24"/>
+      <c r="G52" s="24"/>
+      <c r="H52" s="24"/>
+      <c r="I52" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J52" s="17">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K52" s="14"/>
+      <c r="L52" s="24"/>
+      <c r="M52" s="24"/>
+      <c r="N52" s="24"/>
+      <c r="O52" s="24"/>
+      <c r="P52" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="26">
+        <v>0</v>
+      </c>
+      <c r="R52" s="14"/>
+      <c r="S52" s="24"/>
+      <c r="T52" s="26">
+        <v>0</v>
+      </c>
+      <c r="U52" s="14"/>
+      <c r="V52" s="27">
+        <v>0</v>
+      </c>
+      <c r="W52" s="24"/>
+      <c r="X52" s="27">
+        <v>0</v>
+      </c>
+      <c r="Y52" s="28" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A53" s="12">
+        <v>47</v>
+      </c>
+      <c r="B53" s="13"/>
+      <c r="C53" s="13"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="15"/>
+      <c r="F53" s="15"/>
+      <c r="G53" s="15"/>
+      <c r="H53" s="15"/>
+      <c r="I53" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J53" s="17">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K53" s="14"/>
+      <c r="L53" s="15"/>
+      <c r="M53" s="15"/>
+      <c r="N53" s="15"/>
+      <c r="O53" s="15"/>
+      <c r="P53" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="17">
+        <v>0</v>
+      </c>
+      <c r="R53" s="14"/>
+      <c r="S53" s="15"/>
+      <c r="T53" s="18">
+        <v>0</v>
+      </c>
+      <c r="U53" s="14"/>
+      <c r="V53" s="19">
+        <v>0</v>
+      </c>
+      <c r="W53" s="20"/>
+      <c r="X53" s="19">
+        <v>0</v>
+      </c>
+      <c r="Y53" s="21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A54" s="22">
+        <v>48</v>
+      </c>
+      <c r="B54" s="23"/>
+      <c r="C54" s="23"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="24"/>
+      <c r="F54" s="24"/>
+      <c r="G54" s="24"/>
+      <c r="H54" s="24"/>
+      <c r="I54" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J54" s="17">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K54" s="14"/>
+      <c r="L54" s="24"/>
+      <c r="M54" s="24"/>
+      <c r="N54" s="24"/>
+      <c r="O54" s="24"/>
+      <c r="P54" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="26">
+        <v>0</v>
+      </c>
+      <c r="R54" s="14"/>
+      <c r="S54" s="24"/>
+      <c r="T54" s="26">
+        <v>0</v>
+      </c>
+      <c r="U54" s="14"/>
+      <c r="V54" s="27">
+        <v>0</v>
+      </c>
+      <c r="W54" s="24"/>
+      <c r="X54" s="27">
+        <v>0</v>
+      </c>
+      <c r="Y54" s="28" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A55" s="12">
+        <v>49</v>
+      </c>
+      <c r="B55" s="13"/>
+      <c r="C55" s="13"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="15"/>
+      <c r="F55" s="15"/>
+      <c r="G55" s="15"/>
+      <c r="H55" s="15"/>
+      <c r="I55" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J55" s="17">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K55" s="14"/>
+      <c r="L55" s="15"/>
+      <c r="M55" s="15"/>
+      <c r="N55" s="15"/>
+      <c r="O55" s="15"/>
+      <c r="P55" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q55" s="17">
+        <v>0</v>
+      </c>
+      <c r="R55" s="14"/>
+      <c r="S55" s="15"/>
+      <c r="T55" s="18">
+        <v>0</v>
+      </c>
+      <c r="U55" s="14"/>
+      <c r="V55" s="19">
+        <v>0</v>
+      </c>
+      <c r="W55" s="20"/>
+      <c r="X55" s="19">
+        <v>0</v>
+      </c>
+      <c r="Y55" s="21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A56" s="22">
+        <v>50</v>
+      </c>
+      <c r="B56" s="23"/>
+      <c r="C56" s="23"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="24"/>
+      <c r="F56" s="24"/>
+      <c r="G56" s="24"/>
+      <c r="H56" s="24"/>
+      <c r="I56" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J56" s="17">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K56" s="14"/>
+      <c r="L56" s="24"/>
+      <c r="M56" s="24"/>
+      <c r="N56" s="24"/>
+      <c r="O56" s="24"/>
+      <c r="P56" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q56" s="26">
+        <v>0</v>
+      </c>
+      <c r="R56" s="14"/>
+      <c r="S56" s="24"/>
+      <c r="T56" s="26">
+        <v>0</v>
+      </c>
+      <c r="U56" s="14"/>
+      <c r="V56" s="27">
+        <v>0</v>
+      </c>
+      <c r="W56" s="24"/>
+      <c r="X56" s="27">
+        <v>0</v>
+      </c>
+      <c r="Y56" s="28" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A57" s="12">
+        <v>51</v>
+      </c>
+      <c r="B57" s="13"/>
+      <c r="C57" s="13"/>
+      <c r="D57" s="14"/>
+      <c r="E57" s="15"/>
+      <c r="F57" s="15"/>
+      <c r="G57" s="15"/>
+      <c r="H57" s="15"/>
+      <c r="I57" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J57" s="17">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K57" s="14"/>
+      <c r="L57" s="15"/>
+      <c r="M57" s="15"/>
+      <c r="N57" s="15"/>
+      <c r="O57" s="15"/>
+      <c r="P57" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="17">
+        <v>0</v>
+      </c>
+      <c r="R57" s="14"/>
+      <c r="S57" s="15"/>
+      <c r="T57" s="18">
+        <v>0</v>
+      </c>
+      <c r="U57" s="14"/>
+      <c r="V57" s="19">
+        <v>0</v>
+      </c>
+      <c r="W57" s="20"/>
+      <c r="X57" s="19">
+        <v>0</v>
+      </c>
+      <c r="Y57" s="21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A58" s="22">
+        <v>52</v>
+      </c>
+      <c r="B58" s="23"/>
+      <c r="C58" s="23"/>
+      <c r="D58" s="14"/>
+      <c r="E58" s="24"/>
+      <c r="F58" s="24"/>
+      <c r="G58" s="24"/>
+      <c r="H58" s="24"/>
+      <c r="I58" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J58" s="17">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K58" s="14"/>
+      <c r="L58" s="24"/>
+      <c r="M58" s="24"/>
+      <c r="N58" s="24"/>
+      <c r="O58" s="24"/>
+      <c r="P58" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="26">
+        <v>0</v>
+      </c>
+      <c r="R58" s="14"/>
+      <c r="S58" s="24"/>
+      <c r="T58" s="26">
+        <v>0</v>
+      </c>
+      <c r="U58" s="14"/>
+      <c r="V58" s="27">
+        <v>0</v>
+      </c>
+      <c r="W58" s="24"/>
+      <c r="X58" s="27">
+        <v>0</v>
+      </c>
+      <c r="Y58" s="28" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A59" s="12">
+        <v>53</v>
+      </c>
+      <c r="B59" s="13"/>
+      <c r="C59" s="13"/>
+      <c r="D59" s="14"/>
+      <c r="E59" s="15"/>
+      <c r="F59" s="15"/>
+      <c r="G59" s="15"/>
+      <c r="H59" s="15"/>
+      <c r="I59" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J59" s="17">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K59" s="14"/>
+      <c r="L59" s="15"/>
+      <c r="M59" s="15"/>
+      <c r="N59" s="15"/>
+      <c r="O59" s="15"/>
+      <c r="P59" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="17">
+        <v>0</v>
+      </c>
+      <c r="R59" s="14"/>
+      <c r="S59" s="15"/>
+      <c r="T59" s="18">
+        <v>0</v>
+      </c>
+      <c r="U59" s="14"/>
+      <c r="V59" s="19">
+        <v>0</v>
+      </c>
+      <c r="W59" s="20"/>
+      <c r="X59" s="19">
+        <v>0</v>
+      </c>
+      <c r="Y59" s="21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A60" s="22">
+        <v>54</v>
+      </c>
+      <c r="B60" s="23"/>
+      <c r="C60" s="23"/>
+      <c r="D60" s="14"/>
+      <c r="E60" s="24"/>
+      <c r="F60" s="24"/>
+      <c r="G60" s="24"/>
+      <c r="H60" s="24"/>
+      <c r="I60" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J60" s="17">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K60" s="14"/>
+      <c r="L60" s="24"/>
+      <c r="M60" s="24"/>
+      <c r="N60" s="24"/>
+      <c r="O60" s="24"/>
+      <c r="P60" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q60" s="26">
+        <v>0</v>
+      </c>
+      <c r="R60" s="14"/>
+      <c r="S60" s="24"/>
+      <c r="T60" s="26">
+        <v>0</v>
+      </c>
+      <c r="U60" s="14"/>
+      <c r="V60" s="27">
+        <v>0</v>
+      </c>
+      <c r="W60" s="24"/>
+      <c r="X60" s="27">
+        <v>0</v>
+      </c>
+      <c r="Y60" s="28" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A61" s="12">
+        <v>55</v>
+      </c>
+      <c r="B61" s="13"/>
+      <c r="C61" s="13"/>
+      <c r="D61" s="14"/>
+      <c r="E61" s="15"/>
+      <c r="F61" s="15"/>
+      <c r="G61" s="15"/>
+      <c r="H61" s="15"/>
+      <c r="I61" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J61" s="17">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K61" s="14"/>
+      <c r="L61" s="15"/>
+      <c r="M61" s="15"/>
+      <c r="N61" s="15"/>
+      <c r="O61" s="15"/>
+      <c r="P61" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="17">
+        <v>0</v>
+      </c>
+      <c r="R61" s="14"/>
+      <c r="S61" s="15"/>
+      <c r="T61" s="18">
+        <v>0</v>
+      </c>
+      <c r="U61" s="14"/>
+      <c r="V61" s="19">
+        <v>0</v>
+      </c>
+      <c r="W61" s="20"/>
+      <c r="X61" s="19">
+        <v>0</v>
+      </c>
+      <c r="Y61" s="21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A62" s="22">
+        <v>56</v>
+      </c>
+      <c r="B62" s="23"/>
+      <c r="C62" s="23"/>
+      <c r="D62" s="14"/>
+      <c r="E62" s="24"/>
+      <c r="F62" s="24"/>
+      <c r="G62" s="24"/>
+      <c r="H62" s="24"/>
+      <c r="I62" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J62" s="17">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K62" s="14"/>
+      <c r="L62" s="24"/>
+      <c r="M62" s="24"/>
+      <c r="N62" s="24"/>
+      <c r="O62" s="24"/>
+      <c r="P62" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="26">
+        <v>0</v>
+      </c>
+      <c r="R62" s="14"/>
+      <c r="S62" s="24"/>
+      <c r="T62" s="26">
+        <v>0</v>
+      </c>
+      <c r="U62" s="14"/>
+      <c r="V62" s="27">
+        <v>0</v>
+      </c>
+      <c r="W62" s="24"/>
+      <c r="X62" s="27">
+        <v>0</v>
+      </c>
+      <c r="Y62" s="28" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A63" s="12">
+        <v>57</v>
+      </c>
+      <c r="B63" s="13"/>
+      <c r="C63" s="13"/>
+      <c r="D63" s="14"/>
+      <c r="E63" s="15"/>
+      <c r="F63" s="15"/>
+      <c r="G63" s="15"/>
+      <c r="H63" s="15"/>
+      <c r="I63" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J63" s="17">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K63" s="14"/>
+      <c r="L63" s="15"/>
+      <c r="M63" s="15"/>
+      <c r="N63" s="15"/>
+      <c r="O63" s="15"/>
+      <c r="P63" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="17">
+        <v>0</v>
+      </c>
+      <c r="R63" s="14"/>
+      <c r="S63" s="15"/>
+      <c r="T63" s="18">
+        <v>0</v>
+      </c>
+      <c r="U63" s="14"/>
+      <c r="V63" s="19">
+        <v>0</v>
+      </c>
+      <c r="W63" s="20"/>
+      <c r="X63" s="19">
+        <v>0</v>
+      </c>
+      <c r="Y63" s="21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A64" s="22">
+        <v>58</v>
+      </c>
+      <c r="B64" s="23"/>
+      <c r="C64" s="23"/>
+      <c r="D64" s="14"/>
+      <c r="E64" s="24"/>
+      <c r="F64" s="24"/>
+      <c r="G64" s="24"/>
+      <c r="H64" s="24"/>
+      <c r="I64" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J64" s="17">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K64" s="14"/>
+      <c r="L64" s="24"/>
+      <c r="M64" s="24"/>
+      <c r="N64" s="24"/>
+      <c r="O64" s="24"/>
+      <c r="P64" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="26">
+        <v>0</v>
+      </c>
+      <c r="R64" s="14"/>
+      <c r="S64" s="24"/>
+      <c r="T64" s="26">
+        <v>0</v>
+      </c>
+      <c r="U64" s="14"/>
+      <c r="V64" s="27">
+        <v>0</v>
+      </c>
+      <c r="W64" s="24"/>
+      <c r="X64" s="27">
+        <v>0</v>
+      </c>
+      <c r="Y64" s="28" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A65" s="12">
+        <v>59</v>
+      </c>
+      <c r="B65" s="13"/>
+      <c r="C65" s="13"/>
+      <c r="D65" s="14"/>
+      <c r="E65" s="15"/>
+      <c r="F65" s="15"/>
+      <c r="G65" s="15"/>
+      <c r="H65" s="15"/>
+      <c r="I65" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J65" s="17">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K65" s="14"/>
+      <c r="L65" s="15"/>
+      <c r="M65" s="15"/>
+      <c r="N65" s="15"/>
+      <c r="O65" s="15"/>
+      <c r="P65" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="17">
+        <v>0</v>
+      </c>
+      <c r="R65" s="14"/>
+      <c r="S65" s="15"/>
+      <c r="T65" s="18">
+        <v>0</v>
+      </c>
+      <c r="U65" s="14"/>
+      <c r="V65" s="19">
+        <v>0</v>
+      </c>
+      <c r="W65" s="20"/>
+      <c r="X65" s="19">
+        <v>0</v>
+      </c>
+      <c r="Y65" s="21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A66" s="22">
+        <v>60</v>
+      </c>
+      <c r="B66" s="23"/>
+      <c r="C66" s="23"/>
+      <c r="D66" s="14"/>
+      <c r="E66" s="24"/>
+      <c r="F66" s="24"/>
+      <c r="G66" s="24"/>
+      <c r="H66" s="24"/>
+      <c r="I66" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J66" s="17">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K66" s="14"/>
+      <c r="L66" s="24"/>
+      <c r="M66" s="24"/>
+      <c r="N66" s="24"/>
+      <c r="O66" s="24"/>
+      <c r="P66" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q66" s="26">
+        <v>0</v>
+      </c>
+      <c r="R66" s="14"/>
+      <c r="S66" s="24"/>
+      <c r="T66" s="26">
+        <v>0</v>
+      </c>
+      <c r="U66" s="14"/>
+      <c r="V66" s="27">
+        <v>0</v>
+      </c>
+      <c r="W66" s="24"/>
+      <c r="X66" s="27">
+        <v>0</v>
+      </c>
+      <c r="Y66" s="28" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="70" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A70" s="1"/>
+      <c r="B70" s="1"/>
+      <c r="C70" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
+      <c r="I70" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J70" s="1"/>
+      <c r="K70" s="1"/>
+      <c r="L70" s="1"/>
+      <c r="M70" s="1"/>
+      <c r="N70" s="1"/>
+      <c r="O70" s="1"/>
+      <c r="P70" s="1"/>
+      <c r="Q70" s="1"/>
+      <c r="R70" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="S70" s="1"/>
+      <c r="T70" s="1"/>
+      <c r="U70" s="1"/>
+      <c r="V70" s="1"/>
+      <c r="W70" s="1"/>
+      <c r="X70" s="1"/>
+      <c r="Y70" s="1"/>
+    </row>
+    <row r="71" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A71" s="1"/>
+      <c r="B71" s="1"/>
+      <c r="C71" s="29"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1"/>
+      <c r="H71" s="1"/>
+      <c r="I71" s="37"/>
+      <c r="J71" s="37"/>
+      <c r="K71" s="37"/>
+      <c r="L71" s="37"/>
+      <c r="M71" s="37"/>
+      <c r="N71" s="1"/>
+      <c r="O71" s="1"/>
+      <c r="P71" s="1"/>
+      <c r="Q71" s="1"/>
+      <c r="R71" s="37"/>
+      <c r="S71" s="37"/>
+      <c r="T71" s="37"/>
+      <c r="U71" s="37"/>
+      <c r="V71" s="37"/>
+      <c r="W71" s="29"/>
+      <c r="X71" s="1"/>
+      <c r="Y71" s="1"/>
+    </row>
+    <row r="72" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A72" s="1"/>
+      <c r="B72" s="1"/>
+      <c r="C72" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1"/>
+      <c r="H72" s="1"/>
+      <c r="I72" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="J72" s="34"/>
+      <c r="K72" s="34"/>
+      <c r="L72" s="34"/>
+      <c r="M72" s="34"/>
+      <c r="N72" s="1"/>
+      <c r="O72" s="1"/>
+      <c r="P72" s="1"/>
+      <c r="Q72" s="1"/>
+      <c r="R72" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="S72" s="34"/>
+      <c r="T72" s="34"/>
+      <c r="U72" s="34"/>
+      <c r="V72" s="34"/>
+      <c r="W72" s="34"/>
+      <c r="X72" s="1"/>
+      <c r="Y72" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:C1"/>
+  <mergeCells count="9">
+    <mergeCell ref="I72:M72"/>
+    <mergeCell ref="R72:W72"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="E5:J5"/>
+    <mergeCell ref="L5:Q5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="V5:Y5"/>
+    <mergeCell ref="I71:M71"/>
+    <mergeCell ref="R71:V71"/>
   </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/class/example.xlsx
+++ b/class/example.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="44">
   <si>
     <t>Section</t>
   </si>
@@ -119,34 +119,40 @@
     <t>Registrar</t>
   </si>
   <si>
-    <t>A111G0001</t>
-  </si>
-  <si>
-    <t>John David Lozano</t>
-  </si>
-  <si>
-    <t>A111G0002</t>
-  </si>
-  <si>
-    <t>Jeddahlyn Cabuga</t>
-  </si>
-  <si>
-    <t>A111G0003</t>
-  </si>
-  <si>
-    <t>Janice Millanes</t>
-  </si>
-  <si>
-    <t>A111G0004</t>
-  </si>
-  <si>
-    <t>Judilyn Abcede</t>
-  </si>
-  <si>
-    <t>A111G0005</t>
-  </si>
-  <si>
-    <t>Jhansel May Conception</t>
+    <t>Mary Claire Q. Romano</t>
+  </si>
+  <si>
+    <t>Diana Jane D. Lucena</t>
+  </si>
+  <si>
+    <t>Sam J. Saracanlao</t>
+  </si>
+  <si>
+    <t>Dennis Dondon F. Serquina</t>
+  </si>
+  <si>
+    <t>Judy Dela F. Francisco</t>
+  </si>
+  <si>
+    <t>Carmela Q. Romano</t>
+  </si>
+  <si>
+    <t>A114C0440</t>
+  </si>
+  <si>
+    <t>A114C0268</t>
+  </si>
+  <si>
+    <t>A114C0269</t>
+  </si>
+  <si>
+    <t>A114C0447</t>
+  </si>
+  <si>
+    <t>A114C0426</t>
+  </si>
+  <si>
+    <t>A114C0270</t>
   </si>
 </sst>
 </file>
@@ -167,6 +173,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -348,7 +355,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyProtection="1">
@@ -440,6 +447,9 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="2" fontId="13" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -765,14 +775,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="S12" sqref="S12"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="W12" sqref="W12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="22.28515625" customWidth="1"/>
+    <col min="3" max="3" width="25" customWidth="1"/>
     <col min="4" max="4" width="3.140625" customWidth="1"/>
     <col min="11" max="11" width="2.5703125" customWidth="1"/>
     <col min="18" max="18" width="2.85546875" customWidth="1"/>
@@ -906,41 +916,41 @@
       <c r="Y4" s="1"/>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
       <c r="D5" s="7"/>
-      <c r="E5" s="36" t="s">
+      <c r="E5" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
       <c r="K5" s="7"/>
-      <c r="L5" s="36" t="s">
+      <c r="L5" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="M5" s="36"/>
-      <c r="N5" s="36"/>
-      <c r="O5" s="36"/>
-      <c r="P5" s="36"/>
-      <c r="Q5" s="36"/>
+      <c r="M5" s="37"/>
+      <c r="N5" s="37"/>
+      <c r="O5" s="37"/>
+      <c r="P5" s="37"/>
+      <c r="Q5" s="37"/>
       <c r="R5" s="7"/>
-      <c r="S5" s="36" t="s">
+      <c r="S5" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="T5" s="36"/>
+      <c r="T5" s="37"/>
       <c r="U5" s="7"/>
-      <c r="V5" s="36" t="s">
+      <c r="V5" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="W5" s="36"/>
-      <c r="X5" s="36"/>
-      <c r="Y5" s="36"/>
+      <c r="W5" s="37"/>
+      <c r="X5" s="37"/>
+      <c r="Y5" s="37"/>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
@@ -1013,11 +1023,11 @@
       <c r="A7" s="12">
         <v>1</v>
       </c>
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="34" t="s">
         <v>32</v>
-      </c>
-      <c r="C7" s="31" t="s">
-        <v>33</v>
       </c>
       <c r="D7" s="14"/>
       <c r="E7" s="15">
@@ -1089,10 +1099,10 @@
         <v>2</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D8" s="14"/>
       <c r="E8" s="24">
@@ -1129,7 +1139,7 @@
         <v>100</v>
       </c>
       <c r="P8" s="16">
-        <f t="shared" ref="P8:P11" si="2">SUM(L8:O8)/4</f>
+        <f t="shared" ref="P8:P12" si="2">SUM(L8:O8)/4</f>
         <v>100</v>
       </c>
       <c r="Q8" s="17">
@@ -1141,7 +1151,7 @@
         <v>20</v>
       </c>
       <c r="T8" s="18">
-        <f t="shared" ref="T8:T11" si="4">S8</f>
+        <f t="shared" ref="T8:T12" si="4">S8</f>
         <v>20</v>
       </c>
       <c r="U8" s="14"/>
@@ -1151,7 +1161,7 @@
       </c>
       <c r="W8" s="24"/>
       <c r="X8" s="19">
-        <f t="shared" ref="X8:X11" si="5">V8+W8</f>
+        <f t="shared" ref="X8:X12" si="5">V8+W8</f>
         <v>100</v>
       </c>
       <c r="Y8" s="21" t="str">
@@ -1163,11 +1173,11 @@
       <c r="A9" s="12">
         <v>3</v>
       </c>
-      <c r="B9" s="31" t="s">
-        <v>36</v>
+      <c r="B9" s="34" t="s">
+        <v>41</v>
       </c>
       <c r="C9" s="31" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D9" s="14"/>
       <c r="E9" s="15">
@@ -1239,10 +1249,10 @@
         <v>4</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D10" s="14"/>
       <c r="E10" s="24">
@@ -1305,7 +1315,7 @@
         <v>100</v>
       </c>
       <c r="Y10" s="21" t="str">
-        <f t="shared" ref="Y10:Y11" si="6">IF(X10&gt;=98,"4.0",IF(X10&gt;=94,"3.5",IF(X10&gt;=91,"3.0",IF(X10&gt;=87,"2.5",IF(X10&gt;=83,"2.0",IF(X10&gt;=79,"1.5",IF(X10&gt;=75,"1.0","Failed")))))))</f>
+        <f t="shared" ref="Y10:Y12" si="6">IF(X10&gt;=98,"4.0",IF(X10&gt;=94,"3.5",IF(X10&gt;=91,"3.0",IF(X10&gt;=87,"2.5",IF(X10&gt;=83,"2.0",IF(X10&gt;=79,"1.5",IF(X10&gt;=75,"1.0","Failed")))))))</f>
         <v>4.0</v>
       </c>
     </row>
@@ -1314,10 +1324,10 @@
         <v>5</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D11" s="14"/>
       <c r="E11" s="15">
@@ -1363,72 +1373,98 @@
       </c>
       <c r="R11" s="14"/>
       <c r="S11" s="24">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="T11" s="18">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="U11" s="14"/>
       <c r="V11" s="19">
         <f>J11+Q11+T11</f>
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="W11" s="20"/>
       <c r="X11" s="19">
         <f t="shared" si="5"/>
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="Y11" s="21" t="str">
         <f t="shared" si="6"/>
-        <v>2.5</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="22">
         <v>6</v>
       </c>
-      <c r="B12" s="32"/>
-      <c r="C12" s="32"/>
+      <c r="B12" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="32" t="s">
+        <v>37</v>
+      </c>
       <c r="D12" s="14"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
+      <c r="E12" s="24">
+        <v>100</v>
+      </c>
+      <c r="F12" s="24">
+        <v>100</v>
+      </c>
+      <c r="G12" s="24">
+        <v>100</v>
+      </c>
+      <c r="H12" s="24">
+        <v>100</v>
+      </c>
       <c r="I12" s="16">
         <f t="shared" ref="I12:I66" si="7">SUM(E12:H12)/4</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J12" s="17">
         <f t="shared" ref="J12:J66" si="8">I12*0.4</f>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="K12" s="14"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="24"/>
-      <c r="N12" s="24"/>
-      <c r="O12" s="24"/>
-      <c r="P12" s="25">
-        <v>0</v>
+      <c r="L12" s="24">
+        <v>100</v>
+      </c>
+      <c r="M12" s="24">
+        <v>100</v>
+      </c>
+      <c r="N12" s="24">
+        <v>100</v>
+      </c>
+      <c r="O12" s="24">
+        <v>100</v>
+      </c>
+      <c r="P12" s="16">
+        <f t="shared" si="2"/>
+        <v>100</v>
       </c>
       <c r="Q12" s="26">
         <v>0</v>
       </c>
       <c r="R12" s="14"/>
-      <c r="S12" s="24"/>
-      <c r="T12" s="26">
-        <v>0</v>
+      <c r="S12" s="24">
+        <v>20</v>
+      </c>
+      <c r="T12" s="18">
+        <f t="shared" si="4"/>
+        <v>20</v>
       </c>
       <c r="U12" s="14"/>
       <c r="V12" s="27">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W12" s="24"/>
-      <c r="X12" s="27">
-        <v>0</v>
-      </c>
-      <c r="Y12" s="28" t="s">
-        <v>26</v>
+      <c r="X12" s="19">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+      <c r="Y12" s="21" t="str">
+        <f t="shared" si="6"/>
+        <v>4.0</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
@@ -4011,20 +4047,20 @@
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
-      <c r="I71" s="37"/>
-      <c r="J71" s="37"/>
-      <c r="K71" s="37"/>
-      <c r="L71" s="37"/>
-      <c r="M71" s="37"/>
+      <c r="I71" s="38"/>
+      <c r="J71" s="38"/>
+      <c r="K71" s="38"/>
+      <c r="L71" s="38"/>
+      <c r="M71" s="38"/>
       <c r="N71" s="1"/>
       <c r="O71" s="1"/>
       <c r="P71" s="1"/>
       <c r="Q71" s="1"/>
-      <c r="R71" s="37"/>
-      <c r="S71" s="37"/>
-      <c r="T71" s="37"/>
-      <c r="U71" s="37"/>
-      <c r="V71" s="37"/>
+      <c r="R71" s="38"/>
+      <c r="S71" s="38"/>
+      <c r="T71" s="38"/>
+      <c r="U71" s="38"/>
+      <c r="V71" s="38"/>
       <c r="W71" s="29"/>
       <c r="X71" s="1"/>
       <c r="Y71" s="1"/>
@@ -4040,25 +4076,25 @@
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
-      <c r="I72" s="34" t="s">
+      <c r="I72" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="J72" s="34"/>
-      <c r="K72" s="34"/>
-      <c r="L72" s="34"/>
-      <c r="M72" s="34"/>
+      <c r="J72" s="35"/>
+      <c r="K72" s="35"/>
+      <c r="L72" s="35"/>
+      <c r="M72" s="35"/>
       <c r="N72" s="1"/>
       <c r="O72" s="1"/>
       <c r="P72" s="1"/>
       <c r="Q72" s="1"/>
-      <c r="R72" s="34" t="s">
+      <c r="R72" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="S72" s="34"/>
-      <c r="T72" s="34"/>
-      <c r="U72" s="34"/>
-      <c r="V72" s="34"/>
-      <c r="W72" s="34"/>
+      <c r="S72" s="35"/>
+      <c r="T72" s="35"/>
+      <c r="U72" s="35"/>
+      <c r="V72" s="35"/>
+      <c r="W72" s="35"/>
       <c r="X72" s="1"/>
       <c r="Y72" s="1"/>
     </row>

--- a/class/example.xlsx
+++ b/class/example.xlsx
@@ -38,9 +38,6 @@
     <t>Academic Year</t>
   </si>
   <si>
-    <t>2015-2016</t>
-  </si>
-  <si>
     <t>Instructor</t>
   </si>
   <si>
@@ -153,6 +150,9 @@
   </si>
   <si>
     <t>A114C0270</t>
+  </si>
+  <si>
+    <t>2017 - 2018</t>
   </si>
 </sst>
 </file>
@@ -776,7 +776,7 @@
   <dimension ref="A1:Y72"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="W12" sqref="W12"/>
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -850,7 +850,7 @@
       <c r="U2" s="3"/>
       <c r="V2" s="1"/>
       <c r="W2" s="5" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="X2" s="5"/>
       <c r="Y2" s="1"/>
@@ -865,7 +865,7 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
@@ -877,13 +877,13 @@
       <c r="Q3" s="3"/>
       <c r="R3" s="3"/>
       <c r="S3" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="T3" s="3"/>
       <c r="U3" s="3"/>
       <c r="V3" s="1"/>
       <c r="W3" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="X3" s="5"/>
       <c r="Y3" s="1"/>
@@ -917,13 +917,13 @@
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="36" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" s="36"/>
       <c r="C5" s="36"/>
       <c r="D5" s="7"/>
       <c r="E5" s="37" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F5" s="37"/>
       <c r="G5" s="37"/>
@@ -932,7 +932,7 @@
       <c r="J5" s="37"/>
       <c r="K5" s="7"/>
       <c r="L5" s="37" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M5" s="37"/>
       <c r="N5" s="37"/>
@@ -941,12 +941,12 @@
       <c r="Q5" s="37"/>
       <c r="R5" s="7"/>
       <c r="S5" s="37" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="T5" s="37"/>
       <c r="U5" s="7"/>
       <c r="V5" s="37" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="W5" s="37"/>
       <c r="X5" s="37"/>
@@ -955,68 +955,68 @@
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
       <c r="B6" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>14</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>15</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="G6" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="H6" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="10" t="s">
+      <c r="I6" s="10" t="s">
         <v>19</v>
-      </c>
-      <c r="I6" s="10" t="s">
-        <v>20</v>
       </c>
       <c r="J6" s="11">
         <v>0.4</v>
       </c>
       <c r="K6" s="9"/>
       <c r="L6" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="M6" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="M6" s="10" t="s">
+      <c r="N6" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="N6" s="10" t="s">
+      <c r="O6" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="O6" s="10" t="s">
+      <c r="P6" s="10" t="s">
         <v>19</v>
-      </c>
-      <c r="P6" s="10" t="s">
-        <v>20</v>
       </c>
       <c r="Q6" s="11">
         <v>0.4</v>
       </c>
       <c r="R6" s="9"/>
       <c r="S6" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T6" s="11">
         <v>0.2</v>
       </c>
       <c r="U6" s="9"/>
       <c r="V6" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="W6" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="W6" s="10" t="s">
+      <c r="X6" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="X6" s="10" t="s">
+      <c r="Y6" s="10" t="s">
         <v>24</v>
-      </c>
-      <c r="Y6" s="10" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
@@ -1024,10 +1024,10 @@
         <v>1</v>
       </c>
       <c r="B7" s="34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C7" s="34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D7" s="14"/>
       <c r="E7" s="15">
@@ -1084,7 +1084,9 @@
         <f>J7+Q7+T7</f>
         <v>100</v>
       </c>
-      <c r="W7" s="20"/>
+      <c r="W7" s="20">
+        <v>0</v>
+      </c>
       <c r="X7" s="19">
         <f>V7+W7</f>
         <v>100</v>
@@ -1099,52 +1101,52 @@
         <v>2</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D8" s="14"/>
       <c r="E8" s="24">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F8" s="24">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G8" s="24">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H8" s="24">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I8" s="16">
         <f t="shared" ref="I8:I11" si="0">SUM(E8:H8)/4</f>
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J8" s="17">
         <f t="shared" ref="J8:J11" si="1">I8*0.4</f>
-        <v>40</v>
+        <v>39.200000000000003</v>
       </c>
       <c r="K8" s="14"/>
       <c r="L8" s="24">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="M8" s="24">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="N8" s="24">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="O8" s="24">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="P8" s="16">
         <f t="shared" ref="P8:P12" si="2">SUM(L8:O8)/4</f>
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="Q8" s="17">
-        <f t="shared" ref="Q8:Q11" si="3">P8*0.4</f>
-        <v>40</v>
+        <f t="shared" ref="Q8:Q12" si="3">P8*0.4</f>
+        <v>39.200000000000003</v>
       </c>
       <c r="R8" s="14"/>
       <c r="S8" s="24">
@@ -1157,12 +1159,14 @@
       <c r="U8" s="14"/>
       <c r="V8" s="19">
         <f>J8+Q8+T8</f>
-        <v>100</v>
-      </c>
-      <c r="W8" s="24"/>
+        <v>98.4</v>
+      </c>
+      <c r="W8" s="24">
+        <v>1</v>
+      </c>
       <c r="X8" s="19">
         <f t="shared" ref="X8:X12" si="5">V8+W8</f>
-        <v>100</v>
+        <v>99.4</v>
       </c>
       <c r="Y8" s="21" t="str">
         <f>IF(X8&gt;=98,"4.0",IF(X8&gt;=94,"3.5",IF(X8&gt;=91,"3.0",IF(X8&gt;=87,"2.5",IF(X8&gt;=83,"2.0",IF(X8&gt;=79,"1.5",IF(X8&gt;=75,"1.0","Failed")))))))</f>
@@ -1174,52 +1178,52 @@
         <v>3</v>
       </c>
       <c r="B9" s="34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C9" s="31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D9" s="14"/>
       <c r="E9" s="15">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F9" s="15">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="G9" s="15">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="H9" s="15">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="I9" s="16">
-        <f t="shared" si="0"/>
-        <v>100</v>
+        <f>SUM(E9:H9)/4</f>
+        <v>94</v>
       </c>
       <c r="J9" s="17">
         <f t="shared" si="1"/>
-        <v>40</v>
+        <v>37.6</v>
       </c>
       <c r="K9" s="14"/>
       <c r="L9" s="15">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="M9" s="15">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="N9" s="15">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="O9" s="15">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="P9" s="16">
         <f t="shared" si="2"/>
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="Q9" s="17">
         <f t="shared" si="3"/>
-        <v>40</v>
+        <v>37.6</v>
       </c>
       <c r="R9" s="14"/>
       <c r="S9" s="15">
@@ -1232,16 +1236,18 @@
       <c r="U9" s="14"/>
       <c r="V9" s="19">
         <f>J9+Q9+T9</f>
-        <v>100</v>
-      </c>
-      <c r="W9" s="20"/>
+        <v>95.2</v>
+      </c>
+      <c r="W9" s="20">
+        <v>2</v>
+      </c>
       <c r="X9" s="19">
         <f t="shared" si="5"/>
-        <v>100</v>
+        <v>97.2</v>
       </c>
       <c r="Y9" s="21" t="str">
         <f>IF(X9&gt;=98,"4.0",IF(X9&gt;=94,"3.5",IF(X9&gt;=91,"3.0",IF(X9&gt;=87,"2.5",IF(X9&gt;=83,"2.0",IF(X9&gt;=79,"1.5",IF(X9&gt;=75,"1.0","Failed")))))))</f>
-        <v>4.0</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
@@ -1249,52 +1255,52 @@
         <v>4</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D10" s="14"/>
       <c r="E10" s="24">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="F10" s="24">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="G10" s="24">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="H10" s="24">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="I10" s="16">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="J10" s="17">
         <f t="shared" si="1"/>
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="K10" s="14"/>
       <c r="L10" s="24">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="M10" s="24">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="N10" s="24">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="O10" s="24">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="P10" s="16">
         <f t="shared" si="2"/>
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="Q10" s="17">
         <f t="shared" si="3"/>
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="R10" s="14"/>
       <c r="S10" s="24">
@@ -1307,16 +1313,18 @@
       <c r="U10" s="14"/>
       <c r="V10" s="19">
         <f>J10+Q10+T10</f>
-        <v>100</v>
-      </c>
-      <c r="W10" s="24"/>
+        <v>92</v>
+      </c>
+      <c r="W10" s="24">
+        <v>3</v>
+      </c>
       <c r="X10" s="19">
         <f t="shared" si="5"/>
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="Y10" s="21" t="str">
         <f t="shared" ref="Y10:Y12" si="6">IF(X10&gt;=98,"4.0",IF(X10&gt;=94,"3.5",IF(X10&gt;=91,"3.0",IF(X10&gt;=87,"2.5",IF(X10&gt;=83,"2.0",IF(X10&gt;=79,"1.5",IF(X10&gt;=75,"1.0","Failed")))))))</f>
-        <v>4.0</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
@@ -1324,52 +1332,52 @@
         <v>5</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D11" s="14"/>
       <c r="E11" s="15">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="F11" s="15">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="G11" s="15">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="H11" s="15">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="I11" s="16">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="J11" s="17">
         <f t="shared" si="1"/>
-        <v>40</v>
+        <v>35.200000000000003</v>
       </c>
       <c r="K11" s="14"/>
       <c r="L11" s="15">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="M11" s="15">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="N11" s="15">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="O11" s="15">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="P11" s="16">
         <f t="shared" si="2"/>
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="Q11" s="17">
         <f t="shared" si="3"/>
-        <v>40</v>
+        <v>35.200000000000003</v>
       </c>
       <c r="R11" s="14"/>
       <c r="S11" s="24">
@@ -1382,16 +1390,18 @@
       <c r="U11" s="14"/>
       <c r="V11" s="19">
         <f>J11+Q11+T11</f>
-        <v>100</v>
-      </c>
-      <c r="W11" s="20"/>
+        <v>90.4</v>
+      </c>
+      <c r="W11" s="20">
+        <v>4</v>
+      </c>
       <c r="X11" s="19">
         <f t="shared" si="5"/>
-        <v>100</v>
+        <v>94.4</v>
       </c>
       <c r="Y11" s="21" t="str">
         <f t="shared" si="6"/>
-        <v>4.0</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
@@ -1399,51 +1409,52 @@
         <v>6</v>
       </c>
       <c r="B12" s="32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D12" s="14"/>
       <c r="E12" s="24">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="F12" s="24">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="G12" s="24">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="H12" s="24">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="I12" s="16">
         <f t="shared" ref="I12:I66" si="7">SUM(E12:H12)/4</f>
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="J12" s="17">
         <f t="shared" ref="J12:J66" si="8">I12*0.4</f>
-        <v>40</v>
+        <v>32.800000000000004</v>
       </c>
       <c r="K12" s="14"/>
       <c r="L12" s="24">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="M12" s="24">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="N12" s="24">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="O12" s="24">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="P12" s="16">
         <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="Q12" s="26">
-        <v>0</v>
+        <v>82</v>
+      </c>
+      <c r="Q12" s="17">
+        <f t="shared" si="3"/>
+        <v>32.800000000000004</v>
       </c>
       <c r="R12" s="14"/>
       <c r="S12" s="24">
@@ -1454,17 +1465,20 @@
         <v>20</v>
       </c>
       <c r="U12" s="14"/>
-      <c r="V12" s="27">
-        <v>100</v>
-      </c>
-      <c r="W12" s="24"/>
+      <c r="V12" s="19">
+        <f>J12+Q12+T12</f>
+        <v>85.600000000000009</v>
+      </c>
+      <c r="W12" s="24">
+        <v>5</v>
+      </c>
       <c r="X12" s="19">
         <f t="shared" si="5"/>
-        <v>100</v>
+        <v>90.600000000000009</v>
       </c>
       <c r="Y12" s="21" t="str">
         <f t="shared" si="6"/>
-        <v>4.0</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
@@ -1511,7 +1525,7 @@
         <v>0</v>
       </c>
       <c r="Y13" s="21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
@@ -1558,7 +1572,7 @@
         <v>0</v>
       </c>
       <c r="Y14" s="28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
@@ -1605,7 +1619,7 @@
         <v>0</v>
       </c>
       <c r="Y15" s="21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
@@ -1652,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="Y16" s="28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.25">
@@ -1699,7 +1713,7 @@
         <v>0</v>
       </c>
       <c r="Y17" s="21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.25">
@@ -1746,7 +1760,7 @@
         <v>0</v>
       </c>
       <c r="Y18" s="28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
@@ -1793,7 +1807,7 @@
         <v>0</v>
       </c>
       <c r="Y19" s="21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.25">
@@ -1840,7 +1854,7 @@
         <v>0</v>
       </c>
       <c r="Y20" s="28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.25">
@@ -1887,7 +1901,7 @@
         <v>0</v>
       </c>
       <c r="Y21" s="21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.25">
@@ -1934,7 +1948,7 @@
         <v>0</v>
       </c>
       <c r="Y22" s="28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.25">
@@ -1981,7 +1995,7 @@
         <v>0</v>
       </c>
       <c r="Y23" s="21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.25">
@@ -2028,7 +2042,7 @@
         <v>0</v>
       </c>
       <c r="Y24" s="28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.25">
@@ -2075,7 +2089,7 @@
         <v>0</v>
       </c>
       <c r="Y25" s="21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.25">
@@ -2122,7 +2136,7 @@
         <v>0</v>
       </c>
       <c r="Y26" s="28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.25">
@@ -2169,7 +2183,7 @@
         <v>0</v>
       </c>
       <c r="Y27" s="21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.25">
@@ -2216,7 +2230,7 @@
         <v>0</v>
       </c>
       <c r="Y28" s="28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.25">
@@ -2263,7 +2277,7 @@
         <v>0</v>
       </c>
       <c r="Y29" s="21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.25">
@@ -2310,7 +2324,7 @@
         <v>0</v>
       </c>
       <c r="Y30" s="28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.25">
@@ -2357,7 +2371,7 @@
         <v>0</v>
       </c>
       <c r="Y31" s="21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.25">
@@ -2404,7 +2418,7 @@
         <v>0</v>
       </c>
       <c r="Y32" s="28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.25">
@@ -2451,7 +2465,7 @@
         <v>0</v>
       </c>
       <c r="Y33" s="21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.25">
@@ -2498,7 +2512,7 @@
         <v>0</v>
       </c>
       <c r="Y34" s="28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.25">
@@ -2545,7 +2559,7 @@
         <v>0</v>
       </c>
       <c r="Y35" s="21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.25">
@@ -2592,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="Y36" s="28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.25">
@@ -2639,7 +2653,7 @@
         <v>0</v>
       </c>
       <c r="Y37" s="21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.25">
@@ -2686,7 +2700,7 @@
         <v>0</v>
       </c>
       <c r="Y38" s="28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.25">
@@ -2733,7 +2747,7 @@
         <v>0</v>
       </c>
       <c r="Y39" s="21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.25">
@@ -2780,7 +2794,7 @@
         <v>0</v>
       </c>
       <c r="Y40" s="28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.25">
@@ -2827,7 +2841,7 @@
         <v>0</v>
       </c>
       <c r="Y41" s="21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.25">
@@ -2874,7 +2888,7 @@
         <v>0</v>
       </c>
       <c r="Y42" s="28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43" spans="1:25" x14ac:dyDescent="0.25">
@@ -2921,7 +2935,7 @@
         <v>0</v>
       </c>
       <c r="Y43" s="21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.25">
@@ -2968,7 +2982,7 @@
         <v>0</v>
       </c>
       <c r="Y44" s="28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.25">
@@ -3015,7 +3029,7 @@
         <v>0</v>
       </c>
       <c r="Y45" s="21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.25">
@@ -3062,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="Y46" s="28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.25">
@@ -3109,7 +3123,7 @@
         <v>0</v>
       </c>
       <c r="Y47" s="21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48" spans="1:25" x14ac:dyDescent="0.25">
@@ -3156,7 +3170,7 @@
         <v>0</v>
       </c>
       <c r="Y48" s="28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="49" spans="1:25" x14ac:dyDescent="0.25">
@@ -3203,7 +3217,7 @@
         <v>0</v>
       </c>
       <c r="Y49" s="21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50" spans="1:25" x14ac:dyDescent="0.25">
@@ -3250,7 +3264,7 @@
         <v>0</v>
       </c>
       <c r="Y50" s="28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51" spans="1:25" x14ac:dyDescent="0.25">
@@ -3297,7 +3311,7 @@
         <v>0</v>
       </c>
       <c r="Y51" s="21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52" spans="1:25" x14ac:dyDescent="0.25">
@@ -3344,7 +3358,7 @@
         <v>0</v>
       </c>
       <c r="Y52" s="28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="53" spans="1:25" x14ac:dyDescent="0.25">
@@ -3391,7 +3405,7 @@
         <v>0</v>
       </c>
       <c r="Y53" s="21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="54" spans="1:25" x14ac:dyDescent="0.25">
@@ -3438,7 +3452,7 @@
         <v>0</v>
       </c>
       <c r="Y54" s="28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="55" spans="1:25" x14ac:dyDescent="0.25">
@@ -3485,7 +3499,7 @@
         <v>0</v>
       </c>
       <c r="Y55" s="21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="56" spans="1:25" x14ac:dyDescent="0.25">
@@ -3532,7 +3546,7 @@
         <v>0</v>
       </c>
       <c r="Y56" s="28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="57" spans="1:25" x14ac:dyDescent="0.25">
@@ -3579,7 +3593,7 @@
         <v>0</v>
       </c>
       <c r="Y57" s="21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="58" spans="1:25" x14ac:dyDescent="0.25">
@@ -3626,7 +3640,7 @@
         <v>0</v>
       </c>
       <c r="Y58" s="28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="59" spans="1:25" x14ac:dyDescent="0.25">
@@ -3673,7 +3687,7 @@
         <v>0</v>
       </c>
       <c r="Y59" s="21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="60" spans="1:25" x14ac:dyDescent="0.25">
@@ -3720,7 +3734,7 @@
         <v>0</v>
       </c>
       <c r="Y60" s="28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="61" spans="1:25" x14ac:dyDescent="0.25">
@@ -3767,7 +3781,7 @@
         <v>0</v>
       </c>
       <c r="Y61" s="21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="62" spans="1:25" x14ac:dyDescent="0.25">
@@ -3814,7 +3828,7 @@
         <v>0</v>
       </c>
       <c r="Y62" s="28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="63" spans="1:25" x14ac:dyDescent="0.25">
@@ -3861,7 +3875,7 @@
         <v>0</v>
       </c>
       <c r="Y63" s="21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="64" spans="1:25" x14ac:dyDescent="0.25">
@@ -3908,7 +3922,7 @@
         <v>0</v>
       </c>
       <c r="Y64" s="28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="65" spans="1:25" x14ac:dyDescent="0.25">
@@ -3955,7 +3969,7 @@
         <v>0</v>
       </c>
       <c r="Y65" s="21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="66" spans="1:25" x14ac:dyDescent="0.25">
@@ -4002,14 +4016,14 @@
         <v>0</v>
       </c>
       <c r="Y66" s="28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="70" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
@@ -4017,7 +4031,7 @@
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
       <c r="I70" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J70" s="1"/>
       <c r="K70" s="1"/>
@@ -4028,7 +4042,7 @@
       <c r="P70" s="1"/>
       <c r="Q70" s="1"/>
       <c r="R70" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="S70" s="1"/>
       <c r="T70" s="1"/>
@@ -4069,7 +4083,7 @@
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="30" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
@@ -4077,7 +4091,7 @@
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
       <c r="I72" s="35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J72" s="35"/>
       <c r="K72" s="35"/>
@@ -4088,7 +4102,7 @@
       <c r="P72" s="1"/>
       <c r="Q72" s="1"/>
       <c r="R72" s="35" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="S72" s="35"/>
       <c r="T72" s="35"/>
